--- a/test_sheets/test_sheet.xlsx
+++ b/test_sheets/test_sheet.xlsx
@@ -16,9 +16,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t>This is a test sheet.</t>
+    <t>Ich weiss shön nicht.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>This is a test sheet on round 2.</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -374,10 +378,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="C3"/>
+  <dimension ref="C3:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="11.25"/>
@@ -387,6 +391,11 @@
   <sheetData>
     <row r="3" spans="3:3">
       <c r="C3" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="3:3">
+      <c r="C5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
